--- a/CV.xlsx
+++ b/CV.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="10515" windowHeight="4950"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t># Key Skills</t>
   </si>
@@ -475,25 +475,28 @@
     <t>Framework devlopment in VBS, Java, TestNG</t>
   </si>
   <si>
-    <t xml:space="preserve">Software Test Automation, RPA, 12 yr exp
+    <t xml:space="preserve">MC, Appium, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basics of HTML and CSS &amp; Git </t>
+  </si>
+  <si>
+    <t>WinAppDriver with C# and nunit</t>
+  </si>
+  <si>
+    <t>UFT, Webdriver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Test Automation, RPA, 11+ yr exp
 Self contributor &amp; Team Lead 
 </t>
-  </si>
-  <si>
-    <t>UFT, Webdriver, WinAppDriver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MC, Appium, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basics of HTML and CSS &amp; Git </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -728,6 +731,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -743,8 +755,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -755,24 +776,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -891,6 +894,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -925,6 +929,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1100,17 +1105,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H85"/>
+  <dimension ref="B1:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="D1" sqref="D1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
@@ -1123,451 +1128,462 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="31.5" customHeight="1">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
       <c r="H1" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="10.5" customHeight="1">
+    <row r="2" spans="2:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="2:8" ht="6.75" hidden="1" customHeight="1"/>
-    <row r="4" spans="2:8">
-      <c r="B4" s="7" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="2:8" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="17" t="s">
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="17" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="19" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="24"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="19" t="s">
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="24"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="26"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="24"/>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="24"/>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="24"/>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="27"/>
-    </row>
-    <row r="13" spans="2:8" ht="15.75">
-      <c r="B13" s="3" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:2" s="2" customFormat="1">
-      <c r="B24" s="2" t="s">
+    <row r="25" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="1" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="1" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="1" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="1" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="1" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="2" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="1" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="1" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="1" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="1" t="s">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="2" t="s">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="1" t="s">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="1" t="s">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="1" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="1" t="s">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="1" t="s">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="1" t="s">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="2" t="s">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="1" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="1" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="1" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="1" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="1" t="s">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="1" t="s">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="2" t="s">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="1" t="s">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="1" t="s">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="1" t="s">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="1" t="s">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="1" t="s">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="2" t="s">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="1" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="1" t="s">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="1" t="s">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="2" t="s">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="1" t="s">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="1" t="s">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="1" t="s">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="1" t="s">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="2" t="s">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="1" t="s">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="1" t="s">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="1" t="s">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="2" t="s">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="1" t="s">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="1" t="s">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="1" t="s">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="1" t="s">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1575,7 +1591,7 @@
   <mergeCells count="6">
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B1:C1"/>
@@ -1584,29 +1600,29 @@
     <hyperlink ref="H1" r:id="rId1" display="rajneesh.dbg@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="91" fitToHeight="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+  <pageSetup scale="92" fitToHeight="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
